--- a/versions/v17/docs/mobile-attack-v17.0/mobile-attack-v17.0-software.xlsx
+++ b/versions/v17/docs/mobile-attack-v17.0/mobile-attack-v17.0-software.xlsx
@@ -2183,7 +2183,7 @@
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2210,7 +2210,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
+    <t>,,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2219,7 +2219,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2240,7 +2240,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2270,7 +2270,7 @@
     <t>,,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-DualToy)</t>
@@ -2309,7 +2309,7 @@
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: Europol FluBot Jun2022),(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+    <t>,,(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
     <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2360,7 +2360,7 @@
     <t>,,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: FirshSecureList LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Threatfabric LightSpy 2024)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: FirshSecureList LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2369,7 +2369,7 @@
     <t>,,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout-NotCompatible)</t>
@@ -2387,7 +2387,7 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
   </si>
   <si>
     <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
@@ -2426,7 +2426,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),,(Citation: threatpost AndroidSpyware 2020),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: sophos_android_apt_spyware)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),,(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: SentinelLabs AridViper 2023),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2480,7 +2480,7 @@
     <t>(Citation: CrowdStrike-Android),,(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-XLoader-FakeSpy)</t>
